--- a/Ressources/liste_utilisateur - Complete.xlsx
+++ b/Ressources/liste_utilisateur - Complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Formation\Projet 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A85EAD-7334-4B29-B7A1-3B691795CB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798F8C9A-6E43-44F6-B5F7-7053E45263B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1453,9 +1453,6 @@
     <t>Bonnet</t>
   </si>
   <si>
-    <t>Systèmes d'Information</t>
-  </si>
-  <si>
     <t>Tina</t>
   </si>
   <si>
@@ -1987,9 +1984,6 @@
     <t>Service_Juridique</t>
   </si>
   <si>
-    <t>Ventes_Developpment_Commercial</t>
-  </si>
-  <si>
     <t>Relation_Publique_Presse</t>
   </si>
   <si>
@@ -2039,6 +2033,12 @@
   </si>
   <si>
     <t>Service_Client</t>
+  </si>
+  <si>
+    <t>Systemes_Information</t>
+  </si>
+  <si>
+    <t>Ventes_Developpement_Commercial</t>
   </si>
 </sst>
 </file>
@@ -2347,8 +2347,8 @@
   <dimension ref="A1:H1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2377,7 +2377,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
@@ -2403,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
@@ -2429,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -2455,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>20</v>
@@ -2481,7 +2481,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>25</v>
@@ -2507,7 +2507,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>30</v>
@@ -2533,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>35</v>
@@ -2559,7 +2559,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>40</v>
@@ -2585,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>44</v>
@@ -2611,7 +2611,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>47</v>
@@ -2637,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>52</v>
@@ -2663,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>57</v>
@@ -2689,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>61</v>
@@ -2715,7 +2715,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>66</v>
@@ -2741,7 +2741,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>71</v>
@@ -2767,7 +2767,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>75</v>
@@ -2793,7 +2793,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>79</v>
@@ -2819,7 +2819,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>83</v>
@@ -2845,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>88</v>
@@ -2871,7 +2871,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>92</v>
@@ -2894,10 +2894,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>99</v>
@@ -2920,10 +2920,10 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>102</v>
@@ -2946,10 +2946,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>35</v>
@@ -2972,10 +2972,10 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>107</v>
@@ -2998,10 +2998,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>110</v>
@@ -3024,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>112</v>
@@ -3050,10 +3050,10 @@
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>116</v>
@@ -3076,7 +3076,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>112</v>
@@ -3102,7 +3102,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>112</v>
@@ -3128,10 +3128,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>125</v>
@@ -3154,7 +3154,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>112</v>
@@ -3180,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>112</v>
@@ -3206,7 +3206,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>112</v>
@@ -3232,10 +3232,10 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>136</v>
@@ -3258,10 +3258,10 @@
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>137</v>
@@ -3284,10 +3284,10 @@
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>141</v>
@@ -3310,10 +3310,10 @@
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>147</v>
@@ -3336,10 +3336,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>151</v>
@@ -3362,10 +3362,10 @@
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>155</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>157</v>
@@ -3414,10 +3414,10 @@
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>161</v>
@@ -3440,10 +3440,10 @@
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>165</v>
@@ -3466,10 +3466,10 @@
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>170</v>
@@ -3492,10 +3492,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>176</v>
@@ -3518,10 +3518,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>180</v>
@@ -3544,10 +3544,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>184</v>
@@ -3570,10 +3570,10 @@
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>190</v>
@@ -3596,10 +3596,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>194</v>
@@ -3622,10 +3622,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>198</v>
@@ -3648,10 +3648,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>202</v>
@@ -3674,10 +3674,10 @@
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>204</v>
@@ -3700,10 +3700,10 @@
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>207</v>
@@ -3726,10 +3726,10 @@
         <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>209</v>
@@ -3752,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>213</v>
@@ -3778,10 +3778,10 @@
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>217</v>
@@ -3804,10 +3804,10 @@
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>102</v>
@@ -3830,10 +3830,10 @@
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>222</v>
@@ -3856,10 +3856,10 @@
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>226</v>
@@ -3882,10 +3882,10 @@
         <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>230</v>
@@ -3908,10 +3908,10 @@
         <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>234</v>
@@ -3934,10 +3934,10 @@
         <v>2</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>237</v>
@@ -3960,10 +3960,10 @@
         <v>2</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>241</v>
@@ -3986,10 +3986,10 @@
         <v>2</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>244</v>
@@ -4012,10 +4012,10 @@
         <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>248</v>
@@ -4038,10 +4038,10 @@
         <v>2</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>254</v>
@@ -4064,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>257</v>
@@ -4090,10 +4090,10 @@
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>262</v>
@@ -4116,7 +4116,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>257</v>
@@ -4142,7 +4142,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>257</v>
@@ -4168,10 +4168,10 @@
         <v>2</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>270</v>
@@ -4194,10 +4194,10 @@
         <v>2</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>273</v>
@@ -4220,10 +4220,10 @@
         <v>2</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>276</v>
@@ -4246,7 +4246,7 @@
         <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>257</v>
@@ -4272,10 +4272,10 @@
         <v>2</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>282</v>
@@ -4298,10 +4298,10 @@
         <v>2</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>285</v>
@@ -4324,10 +4324,10 @@
         <v>2</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>288</v>
@@ -4350,10 +4350,10 @@
         <v>2</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>291</v>
@@ -4376,10 +4376,10 @@
         <v>2</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>294</v>
@@ -4402,7 +4402,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>257</v>
@@ -4428,10 +4428,10 @@
         <v>2</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>299</v>
@@ -4454,10 +4454,10 @@
         <v>2</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>302</v>
@@ -4480,10 +4480,10 @@
         <v>2</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>305</v>
@@ -4506,10 +4506,10 @@
         <v>2</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>308</v>
@@ -4532,10 +4532,10 @@
         <v>2</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>310</v>
@@ -4558,10 +4558,10 @@
         <v>2</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>313</v>
@@ -4584,10 +4584,10 @@
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>316</v>
@@ -4610,10 +4610,10 @@
         <v>2</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>319</v>
@@ -4636,10 +4636,10 @@
         <v>2</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>321</v>
@@ -4662,10 +4662,10 @@
         <v>2</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>324</v>
@@ -4688,10 +4688,10 @@
         <v>2</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>327</v>
@@ -4714,10 +4714,10 @@
         <v>2</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>330</v>
@@ -4740,10 +4740,10 @@
         <v>2</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>333</v>
@@ -4766,10 +4766,10 @@
         <v>2</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>334</v>
@@ -4792,10 +4792,10 @@
         <v>2</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>340</v>
@@ -4818,7 +4818,7 @@
         <v>2</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>344</v>
@@ -4844,10 +4844,10 @@
         <v>2</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>349</v>
@@ -4870,10 +4870,10 @@
         <v>2</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>351</v>
@@ -4896,10 +4896,10 @@
         <v>2</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>354</v>
@@ -4922,10 +4922,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>357</v>
@@ -4948,7 +4948,7 @@
         <v>2</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>359</v>
@@ -4974,7 +4974,7 @@
         <v>2</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>359</v>
@@ -5000,7 +5000,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>344</v>
@@ -5026,10 +5026,10 @@
         <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>20</v>
@@ -5052,7 +5052,7 @@
         <v>2</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>359</v>
@@ -5078,10 +5078,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>374</v>
@@ -5104,10 +5104,10 @@
         <v>2</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>377</v>
@@ -5130,10 +5130,10 @@
         <v>2</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>381</v>
@@ -5156,10 +5156,10 @@
         <v>2</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>384</v>
@@ -5182,10 +5182,10 @@
         <v>2</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>386</v>
@@ -5208,10 +5208,10 @@
         <v>2</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>390</v>
@@ -5234,7 +5234,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>359</v>
@@ -5260,10 +5260,10 @@
         <v>2</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>396</v>
@@ -5286,10 +5286,10 @@
         <v>2</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>397</v>
@@ -5312,7 +5312,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>359</v>
@@ -5338,10 +5338,10 @@
         <v>2</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>404</v>
@@ -5364,7 +5364,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>344</v>
@@ -5390,7 +5390,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>359</v>
@@ -5416,7 +5416,7 @@
         <v>2</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>414</v>
@@ -5442,7 +5442,7 @@
         <v>2</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>414</v>
@@ -5468,7 +5468,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>414</v>
@@ -5494,10 +5494,10 @@
         <v>2</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>426</v>
@@ -5520,7 +5520,7 @@
         <v>2</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>414</v>
@@ -5546,7 +5546,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>414</v>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>414</v>
@@ -5598,7 +5598,7 @@
         <v>2</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>414</v>
@@ -5624,7 +5624,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>414</v>
@@ -5650,10 +5650,10 @@
         <v>2</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>441</v>
@@ -5676,7 +5676,7 @@
         <v>2</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>414</v>
@@ -5702,7 +5702,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>414</v>
@@ -5728,7 +5728,7 @@
         <v>2</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>452</v>
@@ -5754,7 +5754,7 @@
         <v>2</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>452</v>
@@ -5780,7 +5780,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>452</v>
@@ -5806,7 +5806,7 @@
         <v>2</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>452</v>
@@ -5832,7 +5832,7 @@
         <v>2</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>463</v>
@@ -5858,7 +5858,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>463</v>
@@ -5884,7 +5884,7 @@
         <v>2</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>463</v>
@@ -5910,7 +5910,7 @@
         <v>2</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>463</v>
@@ -5936,13 +5936,13 @@
         <v>2</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>475</v>
+        <v>669</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G138" s="12" t="s">
         <v>48</v>
@@ -5953,22 +5953,22 @@
     </row>
     <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="C139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E139" s="1" t="s">
+      <c r="F139" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="G139" s="12" t="s">
         <v>36</v>
@@ -5979,22 +5979,22 @@
     </row>
     <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="C140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="G140" s="12" t="s">
         <v>84</v>
@@ -6005,48 +6005,48 @@
     </row>
     <row r="141" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>477</v>
-      </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>475</v>
+        <v>669</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G141" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="C142" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="G142" s="12" t="s">
         <v>62</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="143" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>135</v>
@@ -6066,13 +6066,13 @@
         <v>2</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>475</v>
+        <v>669</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G143" s="12" t="s">
         <v>36</v>
@@ -6086,25 +6086,25 @@
         <v>469</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>494</v>
-      </c>
       <c r="F144" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G144" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -6118,24 +6118,24 @@
         <v>2</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G145" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>60</v>
@@ -6144,50 +6144,50 @@
         <v>2</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G146" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="G147" s="12" t="s">
         <v>84</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>275</v>
@@ -6196,19 +6196,19 @@
         <v>2</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G148" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -6216,25 +6216,25 @@
         <v>458</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="G149" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -6248,19 +6248,19 @@
         <v>2</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G150" s="12" t="s">
         <v>84</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -6268,56 +6268,56 @@
         <v>103</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G151" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>519</v>
-      </c>
       <c r="F152" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G152" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>101</v>
@@ -6326,149 +6326,149 @@
         <v>2</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G153" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="C154" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="G154" s="12" t="s">
         <v>67</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="C155" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="G155" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="G156" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="C157" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="G157" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="C158" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="G158" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -6476,51 +6476,51 @@
         <v>8</v>
       </c>
       <c r="B159" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="G159" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="C160" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="G160" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -6528,25 +6528,25 @@
         <v>13</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="G161" s="12" t="s">
         <v>93</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -6554,30 +6554,30 @@
         <v>424</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G162" s="12" t="s">
         <v>84</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>458</v>
@@ -6586,71 +6586,71 @@
         <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G163" s="12" t="s">
         <v>62</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B164" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="F164" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G164" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B165" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="C165" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="G165" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -6658,30 +6658,30 @@
         <v>434</v>
       </c>
       <c r="B166" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F166" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="G166" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>98</v>
@@ -6690,149 +6690,149 @@
         <v>2</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G167" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="C168" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="G168" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>562</v>
-      </c>
       <c r="C169" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G169" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="C170" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F170" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="G170" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>515</v>
-      </c>
       <c r="C171" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G171" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G172" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -6840,30 +6840,30 @@
         <v>8</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G173" s="12" t="s">
         <v>67</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>98</v>
@@ -6872,24 +6872,24 @@
         <v>2</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G174" s="12" t="s">
         <v>93</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>104</v>
@@ -6898,24 +6898,24 @@
         <v>2</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G175" s="12" t="s">
         <v>84</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>275</v>
@@ -6924,45 +6924,45 @@
         <v>2</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G176" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B177" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="B177" s="7" t="s">
-        <v>596</v>
-      </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G177" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -6970,207 +6970,207 @@
         <v>175</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G178" s="12" t="s">
         <v>62</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B179" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="C179" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="G179" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="B180" s="7" t="s">
-        <v>611</v>
-      </c>
       <c r="C180" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G180" s="12" t="s">
         <v>93</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B181" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="B181" s="7" t="s">
-        <v>613</v>
-      </c>
       <c r="C181" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G181" s="12" t="s">
         <v>93</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="B182" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="C182" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="G182" s="12" t="s">
         <v>67</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B183" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="C183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F183" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="G183" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B184" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="C184" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F184" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="G184" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F185" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="G185" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -7178,25 +7178,25 @@
         <v>233</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="G186" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -7204,25 +7204,25 @@
         <v>134</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="G187" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -7236,45 +7236,45 @@
         <v>2</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G188" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="C189" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="G189" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -10905,7 +10905,7 @@
   <customSheetViews>
     <customSheetView guid="{5C9FC29F-8750-4FFA-869D-0BF4002DB2A7}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:N193" xr:uid="{1DB3E2D7-A396-4A0C-B0BD-7EF80857AD82}"/>
+      <autoFilter ref="A1:N193" xr:uid="{D577C77D-E309-439E-B6D8-6F5F0DFF733E}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
